--- a/data/trans_orig/Q5414-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Provincia-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4137</v>
+        <v>4075</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02599456554248095</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1169169970485304</v>
+        <v>0.1151680894400518</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6020</v>
+        <v>4839</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01232744199935651</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08067212510125013</v>
+        <v>0.06485779593909197</v>
       </c>
     </row>
     <row r="6">
@@ -854,7 +854,7 @@
         <v>34466</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31249</v>
+        <v>31311</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>35386</v>
@@ -863,7 +863,7 @@
         <v>0.9740054344575191</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8830830029514709</v>
+        <v>0.8848319105599469</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>73697</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68597</v>
+        <v>69778</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>74617</v>
@@ -897,7 +897,7 @@
         <v>0.9876725580006435</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9193278748987508</v>
+        <v>0.9351422040609061</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5890</v>
+        <v>5195</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0147925718409827</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08836926291721817</v>
+        <v>0.0779413633455103</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5582</v>
+        <v>4990</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.005992784390601223</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03392655692495153</v>
+        <v>0.03032790712124744</v>
       </c>
     </row>
     <row r="9">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8159</v>
+        <v>8043</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02371696167739295</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08336525468776081</v>
+        <v>0.08218054830909298</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8152</v>
+        <v>7914</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0141087178060334</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04954825914226047</v>
+        <v>0.04810290046863953</v>
       </c>
     </row>
     <row r="10">
@@ -1118,7 +1118,7 @@
         <v>65668</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60764</v>
+        <v>61459</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>66654</v>
@@ -1127,7 +1127,7 @@
         <v>0.9852074281590173</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9116307370827791</v>
+        <v>0.9220586366544901</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1139,7 +1139,7 @@
         <v>95554</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89716</v>
+        <v>89832</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>97875</v>
@@ -1148,7 +1148,7 @@
         <v>0.9762830383226071</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9166347453122392</v>
+        <v>0.917819451690907</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1160,19 +1160,19 @@
         <v>161222</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>154923</v>
+        <v>155644</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>163540</v>
+        <v>163550</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9798984978033654</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9416158283320005</v>
+        <v>0.9459969769351823</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9939913484163939</v>
+        <v>0.9940468452316122</v>
       </c>
     </row>
     <row r="11">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>3.517171966334041e-06</v>
+        <v>3.956066544932365e-06</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>2.566705934061234e-06</v>
+        <v>2.158129722543071e-06</v>
       </c>
     </row>
     <row r="13">
@@ -1396,7 +1396,7 @@
         <v>0.9999993354400705</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9999964828280338</v>
+        <v>0.9999960439334576</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>0.9999995872045745</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.999997433294066</v>
+        <v>0.9999978418702775</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4532</v>
+        <v>4777</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01506936303083897</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08222656094675734</v>
+        <v>0.08666800521116751</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5387</v>
+        <v>5209</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01425581255063412</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07248979953236311</v>
+        <v>0.07009806102241356</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6545</v>
+        <v>6826</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01460227557925822</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05056622001976546</v>
+        <v>0.05273462951591758</v>
       </c>
     </row>
     <row r="18">
@@ -1630,7 +1630,7 @@
         <v>54291</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>50590</v>
+        <v>50345</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>55122</v>
@@ -1639,7 +1639,7 @@
         <v>0.9849306369691611</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9177734390532447</v>
+        <v>0.9133319947888321</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -1651,7 +1651,7 @@
         <v>73254</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>68926</v>
+        <v>69104</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>74313</v>
@@ -1660,7 +1660,7 @@
         <v>0.9857441874493659</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9275102004676371</v>
+        <v>0.9299019389775864</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         <v>127546</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>122891</v>
+        <v>122610</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>129436</v>
@@ -1681,7 +1681,7 @@
         <v>0.9853977244207418</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9494337799802344</v>
+        <v>0.9472653704840823</v>
       </c>
       <c r="W18" s="6" t="n">
         <v>1</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5282</v>
+        <v>4626</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02766554269098331</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1280623822853061</v>
+        <v>0.1121582546696013</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5772</v>
+        <v>5264</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01616434424584546</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08175877413052045</v>
+        <v>0.07456716074730546</v>
       </c>
     </row>
     <row r="21">
@@ -1839,19 +1839,19 @@
         <v>3413</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>865</v>
+        <v>834</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7606</v>
+        <v>7412</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1163084400767271</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02949087119808853</v>
+        <v>0.02841023390262135</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2591742375344008</v>
+        <v>0.2525777484251789</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6840</v>
+        <v>6985</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04993264059845959</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1658395803328767</v>
+        <v>0.1693442209635066</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -1881,19 +1881,19 @@
         <v>5473</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2264</v>
+        <v>1999</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11284</v>
+        <v>11259</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07752657758647456</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03207021159468146</v>
+        <v>0.02831188023102842</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1598431131058723</v>
+        <v>0.1594888445912291</v>
       </c>
     </row>
     <row r="22">
@@ -1910,19 +1910,19 @@
         <v>25934</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21741</v>
+        <v>21935</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28482</v>
+        <v>28513</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8836915599232729</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7408257624655993</v>
+        <v>0.7474222515748211</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9705091288019114</v>
+        <v>0.9715897660973787</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -1931,19 +1931,19 @@
         <v>38045</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33000</v>
+        <v>32672</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40324</v>
+        <v>40330</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9224018167105571</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8000868237122879</v>
+        <v>0.7921198927224868</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9776433320482611</v>
+        <v>0.9777825061123799</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -1952,19 +1952,19 @@
         <v>63979</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>57852</v>
+        <v>58012</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>67798</v>
+        <v>67696</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.90630907816768</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8195112610740132</v>
+        <v>0.8217804626575113</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9604090721927785</v>
+        <v>0.958955225032296</v>
       </c>
     </row>
     <row r="23">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4647</v>
+        <v>4960</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007914843998951463</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04387212315636137</v>
+        <v>0.04682816184850948</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6698</v>
+        <v>6428</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01725170467702855</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05719088181145162</v>
+        <v>0.05488761400732271</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -2314,19 +2314,19 @@
         <v>2859</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7954</v>
+        <v>8027</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01281754986199601</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003797969181055617</v>
+        <v>0.003756887233179674</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03565933279299863</v>
+        <v>0.03598639616303982</v>
       </c>
     </row>
     <row r="29">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4784</v>
+        <v>4879</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008968697454742899</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04516679111439043</v>
+        <v>0.04606039042939469</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6596</v>
+        <v>5695</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.008845973945760473</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0563201955778888</v>
+        <v>0.04862366621407744</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6997</v>
+        <v>6787</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00890425638747558</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03137160154430494</v>
+        <v>0.03042728656950941</v>
       </c>
     </row>
     <row r="30">
@@ -2414,7 +2414,7 @@
         <v>104140</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>99890</v>
+        <v>100239</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>105928</v>
@@ -2423,7 +2423,7 @@
         <v>0.9831164585463057</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9430029881856988</v>
+        <v>0.9462966872282117</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>1</v>
@@ -2435,19 +2435,19 @@
         <v>114064</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>108622</v>
+        <v>108857</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>116230</v>
+        <v>116225</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.973902321377211</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9274308600504498</v>
+        <v>0.9294444080014748</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9923946057601829</v>
+        <v>0.9923493583786546</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>220</v>
@@ -2456,19 +2456,19 @@
         <v>218204</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>211283</v>
+        <v>212257</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>221212</v>
+        <v>221216</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9782781937505284</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9472475640684641</v>
+        <v>0.951615307310925</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9917654427231493</v>
+        <v>0.9917841585894787</v>
       </c>
     </row>
     <row r="31">
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6122</v>
+        <v>6041</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.007840902575629707</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03995128358615643</v>
+        <v>0.03942523182256259</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5965</v>
+        <v>5990</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004531658543604507</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02249926013483619</v>
+        <v>0.02259217177448739</v>
       </c>
     </row>
     <row r="33">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6123</v>
+        <v>6690</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01769271448084833</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05472125980855468</v>
+        <v>0.05979200487998022</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>6784</v>
+        <v>7617</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01448833383384554</v>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04427405147429175</v>
+        <v>0.04971151319431955</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>4</v>
@@ -2665,19 +2665,19 @@
         <v>4200</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>10345</v>
+        <v>11184</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01584073904869792</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.004023288614107286</v>
+        <v>0.003969649833725828</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03901864139927193</v>
+        <v>0.04218451440617085</v>
       </c>
     </row>
     <row r="34">
@@ -2694,7 +2694,7 @@
         <v>109913</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>105770</v>
+        <v>105203</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>111893</v>
@@ -2703,7 +2703,7 @@
         <v>0.9823072855191517</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9452787401914455</v>
+        <v>0.9402079951200205</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>1</v>
@@ -2715,19 +2715,19 @@
         <v>149804</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>144182</v>
+        <v>143232</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>152183</v>
+        <v>152185</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9776707635905247</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9409806121523882</v>
+        <v>0.9347795465045563</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9932010653897739</v>
+        <v>0.9932153227080298</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>255</v>
@@ -2736,19 +2736,19 @@
         <v>259717</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>253027</v>
+        <v>253056</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>263042</v>
+        <v>263200</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9796276024076975</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9543946463603145</v>
+        <v>0.9545047230993862</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9921712220116823</v>
+        <v>0.9927666336497472</v>
       </c>
     </row>
     <row r="35">
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6229</v>
+        <v>6459</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.003630880060061497</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01239688647375595</v>
+        <v>0.01285508020912717</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -2861,19 +2861,19 @@
         <v>4363</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10648</v>
+        <v>10309</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.006446272307966698</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.001704408055958046</v>
+        <v>0.001695432792472907</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01573178700912805</v>
+        <v>0.01523173440684728</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7</v>
@@ -2882,19 +2882,19 @@
         <v>6188</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2315</v>
+        <v>2272</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>13507</v>
+        <v>12712</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005246722323954361</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.001962988289154578</v>
+        <v>0.001926693993247964</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01145369360312125</v>
+        <v>0.01077913372620147</v>
       </c>
     </row>
     <row r="37">
@@ -2911,19 +2911,19 @@
         <v>8094</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3633</v>
+        <v>3594</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>15006</v>
+        <v>13797</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01610758264382676</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.007230598002809448</v>
+        <v>0.007151925965693604</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02986454548353293</v>
+        <v>0.02745868962420548</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>8</v>
@@ -2932,19 +2932,19 @@
         <v>8696</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>4211</v>
+        <v>4231</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>16955</v>
+        <v>17290</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01284825081611815</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.006221519777470142</v>
+        <v>0.006251013134590166</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02505000575282022</v>
+        <v>0.02554508757334463</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>17</v>
@@ -2953,19 +2953,19 @@
         <v>16790</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10447</v>
+        <v>10303</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>25946</v>
+        <v>25821</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01423694947603945</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.008858162210160983</v>
+        <v>0.008736083288452233</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02200145422899554</v>
+        <v>0.02189516891272558</v>
       </c>
     </row>
     <row r="38">
@@ -2982,19 +2982,19 @@
         <v>492548</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>484449</v>
+        <v>486132</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>497214</v>
+        <v>497134</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9802615372961118</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9641422800938788</v>
+        <v>0.967492123220223</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9895482156228261</v>
+        <v>0.9893873449657176</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>648</v>
@@ -3003,19 +3003,19 @@
         <v>663783</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>654554</v>
+        <v>654809</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>670238</v>
+        <v>669963</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9807054768759151</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9670700562150728</v>
+        <v>0.9674472432768692</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9902425103068391</v>
+        <v>0.9898367963869905</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1160</v>
@@ -3024,19 +3024,19 @@
         <v>1156331</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1145857</v>
+        <v>1145656</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1164318</v>
+        <v>1164511</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9805163282000062</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9716347267760019</v>
+        <v>0.9714644809106923</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9872891021079236</v>
+        <v>0.9874531378608046</v>
       </c>
     </row>
     <row r="39">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5824</v>
+        <v>5910</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.021337811826242</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1191201493840028</v>
+        <v>0.120868322712501</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6264</v>
+        <v>6350</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01119715313536208</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06723019742774555</v>
+        <v>0.06815082520151086</v>
       </c>
     </row>
     <row r="6">
@@ -3495,7 +3495,7 @@
         <v>47851</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>43070</v>
+        <v>42984</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>48894</v>
@@ -3504,7 +3504,7 @@
         <v>0.9786621881737581</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8808798506159951</v>
+        <v>0.8791316772874985</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -3516,7 +3516,7 @@
         <v>92132</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>86911</v>
+        <v>86825</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>93175</v>
@@ -3525,7 +3525,7 @@
         <v>0.9888028468646379</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9327698025722547</v>
+        <v>0.9318491747984892</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5374</v>
+        <v>5710</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01340498445184084</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06785589168095554</v>
+        <v>0.07209480418294084</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7410</v>
+        <v>7140</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01301140344180145</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0725787878672451</v>
+        <v>0.06994086375233852</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8089</v>
+        <v>7761</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01318334722168523</v>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04461579892607574</v>
+        <v>0.04280719177294232</v>
       </c>
     </row>
     <row r="9">
@@ -3691,19 +3691,19 @@
         <v>4258</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1034</v>
+        <v>1061</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11578</v>
+        <v>12053</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05376065139966754</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01305255637530972</v>
+        <v>0.01340153811075279</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.146177964095716</v>
+        <v>0.1521848062116607</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -3712,19 +3712,19 @@
         <v>4288</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12838</v>
+        <v>12593</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04199775972264432</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01097195944335552</v>
+        <v>0.01093450041828005</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.125751669996412</v>
+        <v>0.1233488634257408</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -3733,19 +3733,19 @@
         <v>8546</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3346</v>
+        <v>3249</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18915</v>
+        <v>16884</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0471366155254394</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01845693458711431</v>
+        <v>0.01791833517749707</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1043304036673752</v>
+        <v>0.09312873700391724</v>
       </c>
     </row>
     <row r="10">
@@ -3762,19 +3762,19 @@
         <v>73883</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66504</v>
+        <v>66080</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78121</v>
+        <v>78097</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9328343641484916</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8396683479175757</v>
+        <v>0.8343164621305368</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9863401573587409</v>
+        <v>0.9860351179141938</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -3783,19 +3783,19 @@
         <v>96477</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>88011</v>
+        <v>88239</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>100760</v>
+        <v>100098</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9449908368355543</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8620658236170228</v>
+        <v>0.8642968931261255</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9869387248336953</v>
+        <v>0.9804591287518404</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>154</v>
@@ -3804,19 +3804,19 @@
         <v>170360</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>159785</v>
+        <v>161716</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176644</v>
+        <v>176122</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9396800372528754</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.881348013581802</v>
+        <v>0.8919999167453297</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9743383900496283</v>
+        <v>0.9714611220432128</v>
       </c>
     </row>
     <row r="11">
@@ -3911,16 +3911,16 @@
         <v>955</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7283</v>
+        <v>8193</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05359619057167883</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01713217470897211</v>
+        <v>0.01712644519571692</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1306511504129451</v>
+        <v>0.1469890270518139</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -3929,19 +3929,19 @@
         <v>5461</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2144</v>
+        <v>2147</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12059</v>
+        <v>11109</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06829425880074531</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02681368969251472</v>
+        <v>0.02685005422050667</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1507943007121575</v>
+        <v>0.1389203481787495</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -3950,19 +3950,19 @@
         <v>8449</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16062</v>
+        <v>15857</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06225710898161523</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03069232012274278</v>
+        <v>0.03069629230208186</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1183553169264783</v>
+        <v>0.1168428812879857</v>
       </c>
     </row>
     <row r="13">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4310</v>
+        <v>5118</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01842757923918135</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07732505467354708</v>
+        <v>0.09181869356074744</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6579</v>
+        <v>7507</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02703915876583822</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08227368950038134</v>
+        <v>0.09387461815536811</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -4021,19 +4021,19 @@
         <v>3189</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8660</v>
+        <v>8703</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02350200034668161</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007605003000676593</v>
+        <v>0.007570749938056654</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06381569994505522</v>
+        <v>0.06412700599933202</v>
       </c>
     </row>
     <row r="14">
@@ -4050,19 +4050,19 @@
         <v>51727</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46570</v>
+        <v>46542</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54741</v>
+        <v>54732</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9279762301891398</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8354620918338195</v>
+        <v>0.8349498973446904</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9820467937362755</v>
+        <v>0.9818802213042084</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -4071,19 +4071,19 @@
         <v>72344</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64566</v>
+        <v>65551</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76659</v>
+        <v>76692</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9046665824334165</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8073945003681406</v>
+        <v>0.8197110156791749</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9586269660172191</v>
+        <v>0.9590363727821779</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>117</v>
@@ -4092,19 +4092,19 @@
         <v>124072</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>115699</v>
+        <v>116198</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>129411</v>
+        <v>129398</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9142408906717031</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8525463064780088</v>
+        <v>0.8562223415653584</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.953581407791218</v>
+        <v>0.9534901572600371</v>
       </c>
     </row>
     <row r="15">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5361</v>
+        <v>4685</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01735372427854503</v>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08372900824970149</v>
+        <v>0.07317523205500415</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4035</v>
+        <v>4047</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01152740229600688</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04714692177367943</v>
+        <v>0.04728955797431996</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6420</v>
+        <v>8264</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.014020991310106</v>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04291313180371746</v>
+        <v>0.05523835137138789</v>
       </c>
     </row>
     <row r="18">
@@ -4314,7 +4314,7 @@
         <v>62917</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>58667</v>
+        <v>59343</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>64028</v>
@@ -4323,7 +4323,7 @@
         <v>0.982646275721455</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9162709917502988</v>
+        <v>0.9268247679449925</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -4335,7 +4335,7 @@
         <v>84588</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>81539</v>
+        <v>81527</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>85574</v>
@@ -4344,7 +4344,7 @@
         <v>0.9884725977039931</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9528530782263206</v>
+        <v>0.9527104420256812</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -4356,7 +4356,7 @@
         <v>147504</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>143182</v>
+        <v>141338</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>149602</v>
@@ -4365,7 +4365,7 @@
         <v>0.985979008689894</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9570868681962825</v>
+        <v>0.944761648628612</v>
       </c>
       <c r="W18" s="6" t="n">
         <v>1</v>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5553</v>
+        <v>5459</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03272728289353373</v>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1756464902341383</v>
+        <v>0.1726970780037118</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -4528,19 +4528,19 @@
         <v>2979</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7925</v>
+        <v>7917</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05975925507034494</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01945295053761353</v>
+        <v>0.01897996170209555</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1589703247744284</v>
+        <v>0.1587936067312637</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -4549,19 +4549,19 @@
         <v>4014</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1017</v>
+        <v>993</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9577</v>
+        <v>9327</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04926985234203483</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01248389966343163</v>
+        <v>0.01218391684288041</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1175620434574824</v>
+        <v>0.1144911501089461</v>
       </c>
     </row>
     <row r="22">
@@ -4578,7 +4578,7 @@
         <v>30577</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26059</v>
+        <v>26153</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>31612</v>
@@ -4587,7 +4587,7 @@
         <v>0.9672727171064662</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8243535097658627</v>
+        <v>0.8273029219962925</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -4599,19 +4599,19 @@
         <v>46876</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41930</v>
+        <v>41938</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48885</v>
+        <v>48909</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.940240744929655</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8410296752255709</v>
+        <v>0.841206393268737</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9805470494623865</v>
+        <v>0.9810200382979045</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -4620,19 +4620,19 @@
         <v>77453</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>71890</v>
+        <v>72140</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>80450</v>
+        <v>80474</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9507301476579652</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8824379565425159</v>
+        <v>0.8855088498910537</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9875161003365683</v>
+        <v>0.9878160831571197</v>
       </c>
     </row>
     <row r="23">
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5331</v>
+        <v>5287</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02041989866142973</v>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1029967102865826</v>
+        <v>0.1021620168367442</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6544</v>
+        <v>7173</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03070522176428342</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09319803911945988</v>
+        <v>0.1021683915504309</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -4766,19 +4766,19 @@
         <v>3213</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8657</v>
+        <v>8623</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02634072341593068</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.008604282006120978</v>
+        <v>0.00865164438390374</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07097592951402083</v>
+        <v>0.07070148621943864</v>
       </c>
     </row>
     <row r="25">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6516</v>
+        <v>7619</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03114665596964007</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09280278914173418</v>
+        <v>0.1085098715919632</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7577</v>
+        <v>6614</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01792981025883414</v>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06211912365052377</v>
+        <v>0.05423013110711096</v>
       </c>
     </row>
     <row r="26">
@@ -4858,7 +4858,7 @@
         <v>50699</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46425</v>
+        <v>46469</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>51756</v>
@@ -4867,7 +4867,7 @@
         <v>0.9795801013385703</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8970032897134174</v>
+        <v>0.8978379831632558</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -4879,19 +4879,19 @@
         <v>65869</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>60477</v>
+        <v>60415</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>69116</v>
+        <v>69108</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9381481222660765</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8613508667012237</v>
+        <v>0.8604686769012834</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9843924643858726</v>
+        <v>0.984278595260234</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>114</v>
@@ -4900,19 +4900,19 @@
         <v>116568</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>110133</v>
+        <v>110182</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>119845</v>
+        <v>119842</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9557294663252351</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9029634948547572</v>
+        <v>0.9033684890298714</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9825967230354286</v>
+        <v>0.9825725157039098</v>
       </c>
     </row>
     <row r="27">
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5224</v>
+        <v>5296</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009194798922813009</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04653621228136609</v>
+        <v>0.04717367159284072</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8224</v>
+        <v>7228</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01426788094361966</v>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05793330967617345</v>
+        <v>0.05091702966338919</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -5046,19 +5046,19 @@
         <v>3058</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>0</v>
+        <v>928</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8270</v>
+        <v>8296</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01202766419741797</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0</v>
+        <v>0.003652078281823111</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03252943902762784</v>
+        <v>0.03263138579443395</v>
       </c>
     </row>
     <row r="29">
@@ -5075,19 +5075,19 @@
         <v>4231</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12199</v>
+        <v>12454</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03769218742887322</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008754518007860382</v>
+        <v>0.008801071452954732</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1086662335892893</v>
+        <v>0.110933005041985</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -5096,19 +5096,19 @@
         <v>3313</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>946</v>
+        <v>961</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9450</v>
+        <v>9775</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02333840470127738</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006661261438969996</v>
+        <v>0.006769149844293172</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06656698915409066</v>
+        <v>0.06885515904919844</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -5117,19 +5117,19 @@
         <v>7545</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2965</v>
+        <v>3021</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>16670</v>
+        <v>16660</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0296768759315509</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01166339625850193</v>
+        <v>0.01188138221614338</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06557045464609289</v>
+        <v>0.06553353701305331</v>
       </c>
     </row>
     <row r="30">
@@ -5146,19 +5146,19 @@
         <v>106999</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>98535</v>
+        <v>99150</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>110342</v>
+        <v>110378</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9531130136483138</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.877716000860833</v>
+        <v>0.8831918698653679</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9828875475966456</v>
+        <v>0.9832050155970364</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>124</v>
@@ -5167,19 +5167,19 @@
         <v>136623</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>129910</v>
+        <v>130011</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>140054</v>
+        <v>139908</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9623937143551029</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.915102457697057</v>
+        <v>0.9158176489587379</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9865584004504594</v>
+        <v>0.9855284815818268</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>220</v>
@@ -5188,19 +5188,19 @@
         <v>243624</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>234742</v>
+        <v>233047</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>249293</v>
+        <v>248980</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9582954598710312</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9233577848205918</v>
+        <v>0.9166911790123098</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9805940829016676</v>
+        <v>0.9793631912918416</v>
       </c>
     </row>
     <row r="31">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>7715</v>
+        <v>6736</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01327237215114839</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04692458088976089</v>
+        <v>0.04096672506306156</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6749</v>
+        <v>7434</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00765230552237355</v>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02366789113177063</v>
+        <v>0.02606743959735563</v>
       </c>
     </row>
     <row r="33">
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6826</v>
+        <v>7886</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01819631756477171</v>
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05652688098361323</v>
+        <v>0.06530657411908536</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>4</v>
@@ -5376,19 +5376,19 @@
         <v>4661</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1173</v>
+        <v>1184</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>10503</v>
+        <v>10658</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02835131372696357</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.007135650752723686</v>
+        <v>0.007199808316038824</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.06387939272111336</v>
+        <v>0.06482020624854178</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>6</v>
@@ -5397,19 +5397,19 @@
         <v>6859</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2338</v>
+        <v>2404</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>14903</v>
+        <v>15307</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02405127192610637</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0081988286872875</v>
+        <v>0.008429508048992772</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05226174037194139</v>
+        <v>0.05367797216066394</v>
       </c>
     </row>
     <row r="34">
@@ -5426,7 +5426,7 @@
         <v>118555</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>113926</v>
+        <v>112866</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>120752</v>
@@ -5435,7 +5435,7 @@
         <v>0.9818036824352283</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9434731190163869</v>
+        <v>0.9346934258809146</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>1</v>
@@ -5447,19 +5447,19 @@
         <v>157573</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>150806</v>
+        <v>150871</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>162025</v>
+        <v>162138</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9583763141218881</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.917216178326718</v>
+        <v>0.9176109860772927</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9854531913538753</v>
+        <v>0.9861395159305171</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>249</v>
@@ -5468,19 +5468,19 @@
         <v>276128</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>267976</v>
+        <v>267460</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>280968</v>
+        <v>280786</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.96829642255152</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9397106768762234</v>
+        <v>0.9379012666052871</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9852700747794395</v>
+        <v>0.984629774392203</v>
       </c>
     </row>
     <row r="35">
@@ -5572,19 +5572,19 @@
         <v>6138</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2966</v>
+        <v>2069</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13330</v>
+        <v>12321</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01096848490119195</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005299994504862984</v>
+        <v>0.003697893221933146</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02381866449756179</v>
+        <v>0.02201656591090905</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>12</v>
@@ -5593,19 +5593,19 @@
         <v>13153</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>7456</v>
+        <v>7490</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>22854</v>
+        <v>22027</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01770354783711975</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01003596196317835</v>
+        <v>0.01008055502817329</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03076056107324554</v>
+        <v>0.02964714844208186</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>18</v>
@@ -5614,19 +5614,19 @@
         <v>19292</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>11738</v>
+        <v>12225</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>30228</v>
+        <v>30060</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01480998431968354</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.009010865740129834</v>
+        <v>0.009385247891174713</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02320555394908721</v>
+        <v>0.02307634225894416</v>
       </c>
     </row>
     <row r="37">
@@ -5643,19 +5643,19 @@
         <v>13860</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7420</v>
+        <v>7535</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>24340</v>
+        <v>25538</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02476529535231574</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01325787687762773</v>
+        <v>0.01346425412092368</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04349241851146981</v>
+        <v>0.04563286234928123</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>19</v>
@@ -5664,19 +5664,19 @@
         <v>21620</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13056</v>
+        <v>12952</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>31244</v>
+        <v>31835</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02909982141932155</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01757197605299769</v>
+        <v>0.01743282385298935</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0420529499456824</v>
+        <v>0.04284856359086296</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>30</v>
@@ -5685,19 +5685,19 @@
         <v>35480</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>24929</v>
+        <v>23776</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>51061</v>
+        <v>49583</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02723759286820312</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01913756748092745</v>
+        <v>0.0182529203957396</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03919882835580531</v>
+        <v>0.03806463113582655</v>
       </c>
     </row>
     <row r="38">
@@ -5714,19 +5714,19 @@
         <v>539639</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>528963</v>
+        <v>527851</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>547348</v>
+        <v>547199</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9642662197464923</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9451901298596301</v>
+        <v>0.9432018923058232</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9780406281469549</v>
+        <v>0.9777753438279506</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>663</v>
@@ -5735,19 +5735,19 @@
         <v>708201</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>695169</v>
+        <v>694184</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>718968</v>
+        <v>718532</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9531966307435586</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9356558531028339</v>
+        <v>0.9343295747843993</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9676884232946382</v>
+        <v>0.9671009628991866</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1150</v>
@@ -5756,19 +5756,19 @@
         <v>1247840</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1230042</v>
+        <v>1231346</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1260676</v>
+        <v>1262104</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9579524228121133</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9442889698605529</v>
+        <v>0.9452901714976294</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9678061097318342</v>
+        <v>0.9689026511447055</v>
       </c>
     </row>
     <row r="39">
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5086</v>
+        <v>5131</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02100587542401088</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1029773402457748</v>
+        <v>0.1038889343626112</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5169</v>
+        <v>5216</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0117514841043422</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05854999271687891</v>
+        <v>0.05907736205318142</v>
       </c>
     </row>
     <row r="5">
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4965</v>
+        <v>5658</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04121437661285162</v>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1276379299380118</v>
+        <v>0.1454640233339993</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4970</v>
+        <v>5710</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01815748981999353</v>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05628872106799038</v>
+        <v>0.06467423707980874</v>
       </c>
     </row>
     <row r="6">
@@ -6230,7 +6230,7 @@
         <v>37293</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33931</v>
+        <v>33238</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>38896</v>
@@ -6239,7 +6239,7 @@
         <v>0.9587856233871483</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8723620700619881</v>
+        <v>0.8545359766660007</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -6251,7 +6251,7 @@
         <v>48353</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>44305</v>
+        <v>44260</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>49391</v>
@@ -6260,7 +6260,7 @@
         <v>0.9789941245759891</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8970226597542252</v>
+        <v>0.8961110656373887</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -6272,19 +6272,19 @@
         <v>85646</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>80793</v>
+        <v>80323</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>87488</v>
+        <v>87496</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9700910260756642</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9151219831965595</v>
+        <v>0.9097975373562354</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9909520308300737</v>
+        <v>0.9910352654102694</v>
       </c>
     </row>
     <row r="7">
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5971</v>
+        <v>6789</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01169017170263493</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05181958469769304</v>
+        <v>0.05891596731638929</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8358</v>
+        <v>6743</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006651277175602036</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04126977341059864</v>
+        <v>0.03329703282665852</v>
       </c>
     </row>
     <row r="9">
@@ -6442,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6785</v>
+        <v>6491</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02176510664822404</v>
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07773062572091217</v>
+        <v>0.07435413754847378</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -6460,19 +6460,19 @@
         <v>4030</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1300</v>
+        <v>1320</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10445</v>
+        <v>10779</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03497302063812579</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01127843181064388</v>
+        <v>0.01145772672019187</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09065035612707489</v>
+        <v>0.09354372600950046</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -6481,19 +6481,19 @@
         <v>5930</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1775</v>
+        <v>2199</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13107</v>
+        <v>14312</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02927992329018553</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008764961034766218</v>
+        <v>0.01085942102569063</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06471622526045233</v>
+        <v>0.07067036005424415</v>
       </c>
     </row>
     <row r="10">
@@ -6510,7 +6510,7 @@
         <v>85395</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80510</v>
+        <v>80804</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>87295</v>
@@ -6519,7 +6519,7 @@
         <v>0.9782348933517759</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9222693742790878</v>
+        <v>0.9256458624515261</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -6531,19 +6531,19 @@
         <v>109851</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>102977</v>
+        <v>101607</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>113880</v>
+        <v>113869</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9533368076592392</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.893680578072343</v>
+        <v>0.8817881439116724</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9883003413037925</v>
+        <v>0.9882083210472895</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>179</v>
@@ -6552,19 +6552,19 @@
         <v>195246</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>187539</v>
+        <v>187091</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>199876</v>
+        <v>199780</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9640687995342124</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9260132301715623</v>
+        <v>0.9237996980783192</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9869281942552278</v>
+        <v>0.9864551166194888</v>
       </c>
     </row>
     <row r="11">
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10639</v>
+        <v>11711</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04060233459552366</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1331543920862359</v>
+        <v>0.1465777635545702</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10758</v>
+        <v>10050</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0226152795791326</v>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0749998952739447</v>
+        <v>0.0700632411251739</v>
       </c>
     </row>
     <row r="13">
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5971</v>
+        <v>6968</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01543591743134758</v>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07472813690113868</v>
+        <v>0.0872108498340398</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6172</v>
+        <v>6194</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008597722070612617</v>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04302458171608621</v>
+        <v>0.04318168100369768</v>
       </c>
     </row>
     <row r="14">
@@ -6795,19 +6795,19 @@
         <v>75420</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67834</v>
+        <v>67923</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78667</v>
+        <v>78663</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9439617479731287</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8490142815936794</v>
+        <v>0.8501278888495246</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9846017472934825</v>
+        <v>0.9845503600439341</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>138</v>
@@ -6816,19 +6816,19 @@
         <v>138966</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>130054</v>
+        <v>131551</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>142211</v>
+        <v>142220</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9687869983502548</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9066578869726878</v>
+        <v>0.9170985232160231</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9914113573467151</v>
+        <v>0.991475068668354</v>
       </c>
     </row>
     <row r="15">
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4220</v>
+        <v>3880</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01180667518619081</v>
@@ -6979,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06521706712494499</v>
+        <v>0.05995067721993845</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7602</v>
+        <v>7271</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02461695137546353</v>
@@ -7000,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08301949618154367</v>
+        <v>0.07939962796866722</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -7009,19 +7009,19 @@
         <v>3018</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>742</v>
+        <v>775</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8659</v>
+        <v>8839</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01931271698071254</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004750125275460463</v>
+        <v>0.004959745493700101</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05540504494787647</v>
+        <v>0.05655503824371537</v>
       </c>
     </row>
     <row r="18">
@@ -7038,7 +7038,7 @@
         <v>63948</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60492</v>
+        <v>60832</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>64712</v>
@@ -7047,7 +7047,7 @@
         <v>0.9881933248138092</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9347829328750551</v>
+        <v>0.9400493227800619</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -7059,7 +7059,7 @@
         <v>89320</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>83972</v>
+        <v>84303</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>91574</v>
@@ -7068,7 +7068,7 @@
         <v>0.9753830486245365</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9169805038184562</v>
+        <v>0.9206003720313328</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -7080,19 +7080,19 @@
         <v>153267</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>147626</v>
+        <v>147446</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>155543</v>
+        <v>155510</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9806872830192874</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9445949550521234</v>
+        <v>0.9434449617562847</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9952498747245395</v>
+        <v>0.9950402545063</v>
       </c>
     </row>
     <row r="19">
@@ -7234,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4491</v>
+        <v>4529</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01898938165383374</v>
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.106715118207106</v>
+        <v>0.107639292517428</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6980</v>
+        <v>7648</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04541162515035464</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1381276398132806</v>
+        <v>0.1513425420449249</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -7273,19 +7273,19 @@
         <v>3094</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7822</v>
+        <v>7882</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03340620633790237</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008326856513955216</v>
+        <v>0.008539976570582178</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08446314129474164</v>
+        <v>0.08510621069410908</v>
       </c>
     </row>
     <row r="22">
@@ -7302,7 +7302,7 @@
         <v>41281</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37589</v>
+        <v>37551</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>42080</v>
@@ -7311,7 +7311,7 @@
         <v>0.9810106183461662</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.893284881792892</v>
+        <v>0.8923607074825712</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -7323,7 +7323,7 @@
         <v>48237</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43552</v>
+        <v>42884</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>50532</v>
@@ -7332,7 +7332,7 @@
         <v>0.9545883748496453</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8618723601867194</v>
+        <v>0.8486574579550741</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -7344,19 +7344,19 @@
         <v>89518</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84790</v>
+        <v>84730</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>91841</v>
+        <v>91821</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9665937936620976</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9155368587052581</v>
+        <v>0.9148937893058908</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9916731434860447</v>
+        <v>0.9914600234294179</v>
       </c>
     </row>
     <row r="23">
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8463</v>
+        <v>7260</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03640538033693026</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1255856853345257</v>
+        <v>0.1077403092953522</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8341</v>
+        <v>8795</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02117929419227479</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07200942251852351</v>
+        <v>0.07592555635817355</v>
       </c>
     </row>
     <row r="25">
@@ -7511,19 +7511,19 @@
         <v>2603</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>813</v>
+        <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6852</v>
+        <v>6489</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05373250430565931</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01678708313395755</v>
+        <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.141442066530237</v>
+        <v>0.1339332541133182</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8101</v>
+        <v>7502</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03371256641578421</v>
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1202130230787967</v>
+        <v>0.1113195509814918</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -7553,19 +7553,19 @@
         <v>4875</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1247</v>
+        <v>1792</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10176</v>
+        <v>10569</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04208565017705095</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01076421950729613</v>
+        <v>0.01547104273018965</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0878482705877533</v>
+        <v>0.09124411665742778</v>
       </c>
     </row>
     <row r="26">
@@ -7582,19 +7582,19 @@
         <v>45843</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>41594</v>
+        <v>41957</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>47633</v>
+        <v>48446</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9462674956943407</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8585579334697629</v>
+        <v>0.8660667458866814</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9832129168660425</v>
+        <v>1</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>55</v>
@@ -7603,19 +7603,19 @@
         <v>62663</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>55540</v>
+        <v>56818</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>66131</v>
+        <v>66165</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9298820532472856</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8241779961078147</v>
+        <v>0.8431523636982677</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9813399559109247</v>
+        <v>0.9818526769174072</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>107</v>
@@ -7624,19 +7624,19 @@
         <v>108506</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>101878</v>
+        <v>101297</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>112450</v>
+        <v>112504</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9367350556306743</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8795202482646489</v>
+        <v>0.8744995436167812</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9707898910980075</v>
+        <v>0.9712480781343775</v>
       </c>
     </row>
     <row r="27">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4736</v>
+        <v>5500</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008127981707974472</v>
@@ -7740,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0422144777989765</v>
+        <v>0.04902637762585593</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6478</v>
+        <v>6411</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.008610170099561013</v>
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0438831403186699</v>
+        <v>0.04342745400622218</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8797</v>
+        <v>6974</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.008401962192534914</v>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03385876874469956</v>
+        <v>0.02684402172497135</v>
       </c>
     </row>
     <row r="29">
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4027</v>
+        <v>4644</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008127981707974472</v>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03589549098754002</v>
+        <v>0.04139793406866338</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -7820,19 +7820,19 @@
         <v>6926</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2581</v>
+        <v>2613</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16561</v>
+        <v>15217</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04691553888416527</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01748582669944894</v>
+        <v>0.0176983127811631</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.112181906581877</v>
+        <v>0.1030812140251563</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -7841,19 +7841,19 @@
         <v>7838</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3038</v>
+        <v>3058</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15940</v>
+        <v>16813</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03016715539086341</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01169469347423048</v>
+        <v>0.01177051224327911</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06135096083855119</v>
+        <v>0.06471113928007438</v>
       </c>
     </row>
     <row r="30">
@@ -7870,7 +7870,7 @@
         <v>110361</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>106308</v>
+        <v>105130</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>112185</v>
@@ -7879,7 +7879,7 @@
         <v>0.9837440365840511</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9476155082762103</v>
+        <v>0.9371095535908562</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>1</v>
@@ -7891,19 +7891,19 @@
         <v>139428</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>131182</v>
+        <v>131115</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>144686</v>
+        <v>144576</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9444742910162737</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8886135323299619</v>
+        <v>0.8881648868515718</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9800935796982072</v>
+        <v>0.9793467028684339</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>226</v>
@@ -7912,19 +7912,19 @@
         <v>249789</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>240901</v>
+        <v>240082</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>255175</v>
+        <v>255134</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9614308824166017</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9272182073475546</v>
+        <v>0.9240694024964606</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9821611570766029</v>
+        <v>0.9820027437032506</v>
       </c>
     </row>
     <row r="31">
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>7857</v>
+        <v>10161</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.014691888506974</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04456713903545694</v>
+        <v>0.05763445545957396</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>9112</v>
+        <v>8889</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.008342749634091538</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0293503288912399</v>
+        <v>0.0286306243305946</v>
       </c>
     </row>
     <row r="34">
@@ -8139,7 +8139,7 @@
         <v>173707</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>168440</v>
+        <v>166136</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>176297</v>
@@ -8148,7 +8148,7 @@
         <v>0.985308111493026</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9554328609645429</v>
+        <v>0.942365544540426</v>
       </c>
       <c r="P34" s="6" t="n">
         <v>1</v>
@@ -8160,7 +8160,7 @@
         <v>307875</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>301353</v>
+        <v>301576</v>
       </c>
       <c r="T34" s="5" t="n">
         <v>310465</v>
@@ -8169,7 +8169,7 @@
         <v>0.9916572503659085</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9706496711087593</v>
+        <v>0.9713693756694054</v>
       </c>
       <c r="W34" s="6" t="n">
         <v>1</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5159</v>
+        <v>5309</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001542021745721652</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.008725063339439303</v>
+        <v>0.008977842348289276</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -8285,19 +8285,19 @@
         <v>9353</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3881</v>
+        <v>4024</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>18182</v>
+        <v>19020</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01202278391417651</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.00498907953796632</v>
+        <v>0.005172913652343402</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0233716208233975</v>
+        <v>0.02444959348314438</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -8306,19 +8306,19 @@
         <v>10265</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4563</v>
+        <v>4555</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>19773</v>
+        <v>18668</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.007496563438631229</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.003332287697218136</v>
+        <v>0.003326519636375536</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0144406732482206</v>
+        <v>0.01363343878407769</v>
       </c>
     </row>
     <row r="37">
@@ -8335,19 +8335,19 @@
         <v>8581</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>4278</v>
+        <v>4550</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>15218</v>
+        <v>15665</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01451160060330047</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.007235041103060154</v>
+        <v>0.00769378710440354</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02573514881445515</v>
+        <v>0.0264913575982695</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>17</v>
@@ -8356,19 +8356,19 @@
         <v>21600</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13293</v>
+        <v>13342</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>34288</v>
+        <v>33711</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02776597343869154</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01708762124529604</v>
+        <v>0.01715098620138967</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04407611261033845</v>
+        <v>0.04333424641996764</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>27</v>
@@ -8377,19 +8377,19 @@
         <v>30181</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>20056</v>
+        <v>20554</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>43639</v>
+        <v>43067</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02204194185073855</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01464717813192229</v>
+        <v>0.01501079184936852</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0318704826121786</v>
+        <v>0.03145274302391803</v>
       </c>
     </row>
     <row r="38">
@@ -8406,19 +8406,19 @@
         <v>581835</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>574710</v>
+        <v>574420</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>586370</v>
+        <v>586161</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9839463776509779</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9718964063480081</v>
+        <v>0.9714072891331518</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9916159317077841</v>
+        <v>0.9912617611997274</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>631</v>
@@ -8427,19 +8427,19 @@
         <v>746978</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>733006</v>
+        <v>733546</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>757463</v>
+        <v>757487</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.960211242647132</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9422511830403836</v>
+        <v>0.9429452341464934</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9736896694761941</v>
+        <v>0.9737205474694121</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1247</v>
@@ -8448,19 +8448,19 @@
         <v>1328813</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1313934</v>
+        <v>1314051</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1340949</v>
+        <v>1341043</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9704614947106303</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.959594719991284</v>
+        <v>0.9596803360359516</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.979324263583745</v>
+        <v>0.9793933068016278</v>
       </c>
     </row>
     <row r="39">
@@ -8856,19 +8856,19 @@
         <v>1940</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5238</v>
+        <v>5284</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02972572171964198</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007230687051811793</v>
+        <v>0.007196334984200764</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08024021474383058</v>
+        <v>0.08094786471192816</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -8877,19 +8877,19 @@
         <v>1940</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5665</v>
+        <v>5361</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01537168766617346</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003796218312895676</v>
+        <v>0.003711866715414998</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04488103800821811</v>
+        <v>0.04246631354567375</v>
       </c>
     </row>
     <row r="6">
@@ -8919,19 +8919,19 @@
         <v>63336</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>60038</v>
+        <v>59992</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>64804</v>
+        <v>64806</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9702742782803579</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9197597852561695</v>
+        <v>0.9190521352880716</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9927693129481883</v>
+        <v>0.9928036650157992</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>212</v>
@@ -8940,19 +8940,19 @@
         <v>124291</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>120566</v>
+        <v>120870</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>125752</v>
+        <v>125762</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9846283123338264</v>
+        <v>0.9846283123338265</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9551189619917818</v>
+        <v>0.9575336864543261</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9962037816871043</v>
+        <v>0.9962881332845849</v>
       </c>
     </row>
     <row r="7">
@@ -9060,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3666</v>
+        <v>4455</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.006609413781504091</v>
@@ -9069,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02708856673566463</v>
+        <v>0.0329163254651603</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -9081,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4516</v>
+        <v>4543</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.003998361324747514</v>
@@ -9090,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02018948453653209</v>
+        <v>0.02030675099262451</v>
       </c>
     </row>
     <row r="9">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6850</v>
+        <v>6743</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02184414133667623</v>
@@ -9119,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07751131239909598</v>
+        <v>0.0762968392679854</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -9128,19 +9128,19 @@
         <v>5788</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3001</v>
+        <v>2973</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10474</v>
+        <v>10363</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04277278045517414</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02217550351566974</v>
+        <v>0.02196743484686026</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07739959358807888</v>
+        <v>0.07657888643208345</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -9149,19 +9149,19 @@
         <v>7719</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13177</v>
+        <v>14085</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03450491035452353</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01753304697551208</v>
+        <v>0.01752663958409108</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0589056078650639</v>
+        <v>0.06296418680814286</v>
       </c>
     </row>
     <row r="10">
@@ -9178,7 +9178,7 @@
         <v>86443</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81523</v>
+        <v>81630</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>88373</v>
@@ -9187,7 +9187,7 @@
         <v>0.9781558586633238</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.922488687600904</v>
+        <v>0.9237031607320145</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -9199,19 +9199,19 @@
         <v>128645</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>123333</v>
+        <v>123730</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>131820</v>
+        <v>132065</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9506178057633218</v>
+        <v>0.9506178057633219</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9113630393075843</v>
+        <v>0.914294624708345</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9740745659813332</v>
+        <v>0.9758876594642258</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>306</v>
@@ -9220,19 +9220,19 @@
         <v>215088</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>208943</v>
+        <v>208403</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>219096</v>
+        <v>219174</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9614967283207289</v>
+        <v>0.9614967283207287</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.934027693898274</v>
+        <v>0.9316135074089188</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.979415343470477</v>
+        <v>0.9797642190233854</v>
       </c>
     </row>
     <row r="11">
@@ -9327,16 +9327,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3719</v>
+        <v>3659</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.01686240580080909</v>
+        <v>0.01686240580080908</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.051443383512706</v>
+        <v>0.05061574330902653</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3761</v>
+        <v>3618</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01242047649241982</v>
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04381279969174775</v>
+        <v>0.04213882663896173</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -9366,19 +9366,19 @@
         <v>2285</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5450</v>
+        <v>5333</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01445092348718052</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003820287949256737</v>
+        <v>0.00370978388582117</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03446345034862561</v>
+        <v>0.03372631919307863</v>
       </c>
     </row>
     <row r="13">
@@ -9395,19 +9395,19 @@
         <v>3982</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1792</v>
+        <v>1630</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7678</v>
+        <v>7441</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05509354833325555</v>
+        <v>0.05509354833325554</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02479314138936061</v>
+        <v>0.02255026257775155</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1062230075865948</v>
+        <v>0.1029330667773301</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -9416,19 +9416,19 @@
         <v>3450</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1291</v>
+        <v>1315</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7009</v>
+        <v>7028</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0401910499465541</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01504088175019732</v>
+        <v>0.01531237408107641</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08164744940923724</v>
+        <v>0.08186184510474616</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -9437,19 +9437,19 @@
         <v>7433</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4095</v>
+        <v>4234</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12478</v>
+        <v>12393</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04700311987449192</v>
+        <v>0.04700311987449193</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02589465875547385</v>
+        <v>0.02677554466446713</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07890910952760703</v>
+        <v>0.07837136843372268</v>
       </c>
     </row>
     <row r="14">
@@ -9466,19 +9466,19 @@
         <v>67084</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62935</v>
+        <v>63430</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>69640</v>
+        <v>69845</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9280440458659354</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8706501474499235</v>
+        <v>0.8775050118781282</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9634127271683551</v>
+        <v>0.966241725911275</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>161</v>
@@ -9487,19 +9487,19 @@
         <v>81333</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>77516</v>
+        <v>77499</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>83702</v>
+        <v>83687</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9473884735610261</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9029269196388727</v>
+        <v>0.9027259725880353</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9749773351336005</v>
+        <v>0.9748031814026367</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>274</v>
@@ -9508,19 +9508,19 @@
         <v>148417</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>143191</v>
+        <v>143259</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152319</v>
+        <v>152238</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9385459566383274</v>
+        <v>0.9385459566383277</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9054956597316687</v>
+        <v>0.9059294304671878</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.963223352320462</v>
+        <v>0.9627101856747027</v>
       </c>
     </row>
     <row r="15">
@@ -9625,19 +9625,19 @@
         <v>1711</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3981</v>
+        <v>3952</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01548471410938941</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004105938642943309</v>
+        <v>0.004094971446536019</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03602334497254567</v>
+        <v>0.03576303705340154</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -9646,19 +9646,19 @@
         <v>1711</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4173</v>
+        <v>4442</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.00883568680157921</v>
+        <v>0.008835686801579212</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002147810073758547</v>
+        <v>0.002330479245706457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02154731423527843</v>
+        <v>0.02293722850411423</v>
       </c>
     </row>
     <row r="17">
@@ -9678,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2939</v>
+        <v>3288</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007749956082851173</v>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03534581218589911</v>
+        <v>0.03954257513855641</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -9699,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2854</v>
+        <v>2421</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006950848768345853</v>
@@ -9708,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02582516187442659</v>
+        <v>0.0219058822774629</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -9717,19 +9717,19 @@
         <v>1413</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4011</v>
+        <v>4376</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.007293979827691336</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001719213323015657</v>
+        <v>0.001739404748619497</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02071115376185224</v>
+        <v>0.02259748858101167</v>
       </c>
     </row>
     <row r="18">
@@ -9746,7 +9746,7 @@
         <v>82512</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80217</v>
+        <v>79868</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>83156</v>
@@ -9755,7 +9755,7 @@
         <v>0.9922500439171489</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9646541878141012</v>
+        <v>0.9604574248614446</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -9767,19 +9767,19 @@
         <v>108025</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>105367</v>
+        <v>105612</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>109603</v>
+        <v>109625</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9775644371222647</v>
+        <v>0.9775644371222648</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9535099005731225</v>
+        <v>0.9557345182853662</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9918494411482327</v>
+        <v>0.9920421991119013</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>367</v>
@@ -9788,19 +9788,19 @@
         <v>190536</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>187168</v>
+        <v>187079</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>192406</v>
+        <v>192341</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9838703333707295</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9664793683076549</v>
+        <v>0.9660165097899901</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9935241380184211</v>
+        <v>0.9931912694556898</v>
       </c>
     </row>
     <row r="19">
@@ -9908,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2127</v>
+        <v>2088</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00685826855226266</v>
@@ -9917,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0345605126866728</v>
+        <v>0.03392801501533105</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -9929,16 +9929,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2125</v>
+        <v>2100</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.004304874144777562</v>
+        <v>0.004304874144777561</v>
       </c>
       <c r="V20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02167722802445299</v>
+        <v>0.02142067927163826</v>
       </c>
     </row>
     <row r="21">
@@ -9955,19 +9955,19 @@
         <v>1612</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4312</v>
+        <v>4751</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04415586744784085</v>
+        <v>0.04415586744784084</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01351696623047655</v>
+        <v>0.01355529661990365</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1181279887299262</v>
+        <v>0.1301663638106681</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -9976,19 +9976,19 @@
         <v>4372</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2055</v>
+        <v>2259</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7692</v>
+        <v>7604</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07104043125996855</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03338473088500257</v>
+        <v>0.03671151771467358</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1249912706226609</v>
+        <v>0.123564271827852</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>13</v>
@@ -9997,19 +9997,19 @@
         <v>5984</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3072</v>
+        <v>3504</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9381</v>
+        <v>10162</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.0610310689314964</v>
+        <v>0.06103106893149639</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03133551233153304</v>
+        <v>0.03574306822314776</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09567932167273754</v>
+        <v>0.1036510647181445</v>
       </c>
     </row>
     <row r="22">
@@ -10026,19 +10026,19 @@
         <v>34891</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32191</v>
+        <v>31752</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36010</v>
+        <v>36008</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9558441325521593</v>
+        <v>0.9558441325521588</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8818720112700738</v>
+        <v>0.8698336361893317</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9864830337695234</v>
+        <v>0.9864447033800964</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>154</v>
@@ -10047,19 +10047,19 @@
         <v>56748</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53422</v>
+        <v>53307</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>59149</v>
+        <v>59047</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9221013001877688</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.868050687295987</v>
+        <v>0.866186874351586</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9611212376521886</v>
+        <v>0.959465750894355</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>222</v>
@@ -10068,19 +10068,19 @@
         <v>91639</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>88378</v>
+        <v>87624</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>94766</v>
+        <v>94159</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9346640569237262</v>
+        <v>0.9346640569237261</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9014022620179299</v>
+        <v>0.8937124838734571</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9665516453746393</v>
+        <v>0.960366049357893</v>
       </c>
     </row>
     <row r="23">
@@ -10172,19 +10172,19 @@
         <v>1504</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4002</v>
+        <v>3795</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02498060767940158</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.00787114978297683</v>
+        <v>0.007845291944073844</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06644604998559582</v>
+        <v>0.06301280610136339</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -10193,19 +10193,19 @@
         <v>2709</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1133</v>
+        <v>1171</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5116</v>
+        <v>5384</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04024824717608832</v>
+        <v>0.04024824717608833</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01683161479419605</v>
+        <v>0.01739457774345228</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07600266522980748</v>
+        <v>0.07998469609380322</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -10214,19 +10214,19 @@
         <v>4213</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2301</v>
+        <v>2260</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7140</v>
+        <v>7287</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03303851747794474</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01804323569177501</v>
+        <v>0.0177213029284388</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05598671924813847</v>
+        <v>0.05713918076599148</v>
       </c>
     </row>
     <row r="25">
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2629</v>
+        <v>2979</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01405170547532403</v>
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04365772921909335</v>
+        <v>0.04947278095939614</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -10264,19 +10264,19 @@
         <v>3347</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1556</v>
+        <v>1585</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6298</v>
+        <v>6333</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04971868820701725</v>
+        <v>0.04971868820701724</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02311001449510336</v>
+        <v>0.02355527322936072</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09356118684619565</v>
+        <v>0.09408852615557559</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -10285,19 +10285,19 @@
         <v>4193</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2208</v>
+        <v>2267</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7178</v>
+        <v>7128</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03287592055458038</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01730981384772333</v>
+        <v>0.01777894985245376</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05628485515772105</v>
+        <v>0.05589502608716103</v>
       </c>
     </row>
     <row r="26">
@@ -10314,19 +10314,19 @@
         <v>57873</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>55098</v>
+        <v>55177</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>59129</v>
+        <v>59286</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9609676868452743</v>
+        <v>0.9609676868452746</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9148849129690174</v>
+        <v>0.9161890541155617</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9818105087809467</v>
+        <v>0.9844325665706118</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>160</v>
@@ -10335,19 +10335,19 @@
         <v>61253</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>57982</v>
+        <v>57474</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63826</v>
+        <v>63604</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9100330646168946</v>
+        <v>0.9100330646168945</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8614267851354086</v>
+        <v>0.85387922395572</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9482508560475178</v>
+        <v>0.9449592200959115</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>289</v>
@@ -10356,19 +10356,19 @@
         <v>119126</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>115476</v>
+        <v>115059</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>122084</v>
+        <v>121966</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9340855619674748</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9054654411013713</v>
+        <v>0.9022000968368739</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9572836318129226</v>
+        <v>0.9563540661571751</v>
       </c>
     </row>
     <row r="27">
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4728</v>
+        <v>4668</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.008097702327072277</v>
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02869556294474251</v>
+        <v>0.02832851091023945</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -10497,16 +10497,16 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4714</v>
+        <v>4389</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.004220840635306341</v>
+        <v>0.004220840635306342</v>
       </c>
       <c r="V28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01491167498085562</v>
+        <v>0.01388480839704893</v>
       </c>
     </row>
     <row r="29">
@@ -10536,19 +10536,19 @@
         <v>2667</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7337</v>
+        <v>6141</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01618929928241451</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004130927287700087</v>
+        <v>0.004067554661568338</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0445279739930954</v>
+        <v>0.03727003375104684</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -10557,19 +10557,19 @@
         <v>2668</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6685</v>
+        <v>6719</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.008438498910969051</v>
+        <v>0.008438498910969053</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002123661671205546</v>
+        <v>0.002113685860786524</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02114729031373205</v>
+        <v>0.02125667125436624</v>
       </c>
     </row>
     <row r="30">
@@ -10599,19 +10599,19 @@
         <v>160767</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>156095</v>
+        <v>156678</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>162801</v>
+        <v>162843</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9757129983905133</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9473542753883423</v>
+        <v>0.950895840491278</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9880585541370256</v>
+        <v>0.9883129742122686</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>404</v>
@@ -10620,19 +10620,19 @@
         <v>312109</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>307687</v>
+        <v>307532</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>314561</v>
+        <v>314719</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9873406604537246</v>
+        <v>0.9873406604537248</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9733521690732894</v>
+        <v>0.9728618096162189</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9950951864153987</v>
+        <v>0.9955971599645174</v>
       </c>
     </row>
     <row r="31">
@@ -10774,16 +10774,16 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>2656</v>
+        <v>3688</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.004027551061653866</v>
+        <v>0.004027551061653865</v>
       </c>
       <c r="H33" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01623955076825504</v>
+        <v>0.02254776023904915</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>3</v>
@@ -10795,16 +10795,16 @@
         <v>599</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>11178</v>
+        <v>10494</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01528478825556466</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.002816446405137125</v>
+        <v>0.002815363095653031</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.05253499775053951</v>
+        <v>0.04932393949838143</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>4</v>
@@ -10813,19 +10813,19 @@
         <v>3911</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>900</v>
+        <v>1196</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>10885</v>
+        <v>10790</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0103922300230515</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.002390634597305716</v>
+        <v>0.003179346247845416</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02892406280031206</v>
+        <v>0.02867245823215113</v>
       </c>
     </row>
     <row r="34">
@@ -10842,16 +10842,16 @@
         <v>162895</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>160898</v>
+        <v>159866</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>163554</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.9959724489383462</v>
+        <v>0.995972448938346</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9837604492317449</v>
+        <v>0.9774522397609511</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>1</v>
@@ -10863,7 +10863,7 @@
         <v>209514</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>201588</v>
+        <v>202272</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>212167</v>
@@ -10872,10 +10872,10 @@
         <v>0.9847152117444353</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9474650022494612</v>
+        <v>0.9506760605016189</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9971835535948629</v>
+        <v>0.997184636904347</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>574</v>
@@ -10884,19 +10884,19 @@
         <v>372410</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>365436</v>
+        <v>365531</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>375421</v>
+        <v>375125</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.9896077699769484</v>
+        <v>0.9896077699769487</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9710759371996887</v>
+        <v>0.9713275417678489</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9976093654026942</v>
+        <v>0.9968206537521546</v>
       </c>
     </row>
     <row r="35">
@@ -10988,19 +10988,19 @@
         <v>2723</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5804</v>
+        <v>6373</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.003801441039884322</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.001607375258940545</v>
+        <v>0.001593326158095672</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.008102275399288247</v>
+        <v>0.00889547894698047</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>17</v>
@@ -11009,19 +11009,19 @@
         <v>8137</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5080</v>
+        <v>4779</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>13661</v>
+        <v>13052</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.009007895721237145</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.005623681387429994</v>
+        <v>0.005290900953340801</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01512275093936867</v>
+        <v>0.01444874023678274</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>23</v>
@@ -11030,19 +11030,19 @@
         <v>10861</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>7173</v>
+        <v>6921</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>16421</v>
+        <v>16001</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.00670513677283464</v>
+        <v>0.006705136772834641</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.004428316547128189</v>
+        <v>0.00427300943585317</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01013829029058329</v>
+        <v>0.009878478388935944</v>
       </c>
     </row>
     <row r="37">
@@ -11059,19 +11059,19 @@
         <v>9674</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5610</v>
+        <v>5642</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>15868</v>
+        <v>15565</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01350395145377913</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.007831107128968702</v>
+        <v>0.007875467534858516</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02214967443662246</v>
+        <v>0.02172702567233913</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>47</v>
@@ -11080,19 +11080,19 @@
         <v>25585</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>18774</v>
+        <v>18216</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>34631</v>
+        <v>34718</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.02832284988799024</v>
+        <v>0.02832284988799025</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02078228507517475</v>
+        <v>0.02016457709369058</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03833601559341689</v>
+        <v>0.03843314931075827</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>63</v>
@@ -11101,19 +11101,19 @@
         <v>35259</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>27017</v>
+        <v>26086</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>46622</v>
+        <v>45311</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0217686103788929</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01667977449314461</v>
+        <v>0.01610506035813262</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02878376862097116</v>
+        <v>0.02797403295693915</v>
       </c>
     </row>
     <row r="38">
@@ -11130,19 +11130,19 @@
         <v>703994</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>696523</v>
+        <v>697622</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>708372</v>
+        <v>708639</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.9826946075063364</v>
+        <v>0.9826946075063367</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9722669844526234</v>
+        <v>0.9738005370870318</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9888062009225477</v>
+        <v>0.9891790515297681</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1643</v>
@@ -11151,19 +11151,19 @@
         <v>869621</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>859865</v>
+        <v>859305</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>876744</v>
+        <v>878219</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9626692543907727</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.951869815965128</v>
+        <v>0.9512504597650061</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9705545164228541</v>
+        <v>0.9721875409348099</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2648</v>
@@ -11172,19 +11172,19 @@
         <v>1573615</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1561056</v>
+        <v>1562617</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1583171</v>
+        <v>1583533</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.9715262528482724</v>
+        <v>0.9715262528482725</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9637727097670628</v>
+        <v>0.9647361669394642</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.977426038638296</v>
+        <v>0.9776493965818973</v>
       </c>
     </row>
     <row r="39">
